--- a/BackTest/2019-10-27 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-27 BackTest ZRX.xlsx
@@ -976,17 +976,13 @@
         <v>331.3333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>331</v>
-      </c>
-      <c r="K17" t="n">
-        <v>331</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1015,22 +1011,14 @@
         <v>330.6666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>331</v>
-      </c>
-      <c r="K18" t="n">
-        <v>331</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1067,13 +1055,9 @@
         <v>330</v>
       </c>
       <c r="K19" t="n">
-        <v>331</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1107,14 +1091,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K20" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1153,11 +1137,11 @@
         <v>333</v>
       </c>
       <c r="K21" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1196,13 +1180,9 @@
         <v>333</v>
       </c>
       <c r="K22" t="n">
-        <v>331</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1210,18 @@
         <v>333.6666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>334</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1273,20 +1251,18 @@
         <v>334.6666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>336</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1316,22 +1292,14 @@
         <v>335.6666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>336</v>
-      </c>
-      <c r="K25" t="n">
-        <v>331</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1365,14 +1333,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>331</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1368,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>331</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1447,14 +1403,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>331</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1488,14 +1438,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>331</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1529,14 +1473,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>331</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1570,14 +1508,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>331</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1611,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>331</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1652,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>331</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1693,14 +1613,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>331</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1734,14 +1648,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>331</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1775,14 +1683,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>331</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1718,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>331</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1857,14 +1753,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>331</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1895,19 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>331</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>1.007084592145015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2318,17 +2202,13 @@
         <v>333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>333</v>
-      </c>
-      <c r="K51" t="n">
-        <v>333</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2357,22 +2237,14 @@
         <v>333.3333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>334</v>
-      </c>
-      <c r="K52" t="n">
-        <v>333</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2400,22 +2272,14 @@
         <v>333.6666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>334</v>
-      </c>
-      <c r="K53" t="n">
-        <v>333</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2443,17 +2307,13 @@
         <v>334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>334</v>
-      </c>
-      <c r="K54" t="n">
-        <v>334</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2482,22 +2342,14 @@
         <v>333.6666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>333</v>
-      </c>
-      <c r="K55" t="n">
-        <v>334</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2525,22 +2377,14 @@
         <v>333.3333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>333</v>
-      </c>
-      <c r="K56" t="n">
-        <v>334</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2568,17 +2412,13 @@
         <v>333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>333</v>
-      </c>
-      <c r="K57" t="n">
-        <v>333</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2607,22 +2447,14 @@
         <v>333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>333</v>
-      </c>
-      <c r="K58" t="n">
-        <v>333</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2482,14 @@
         <v>333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>332</v>
-      </c>
-      <c r="K59" t="n">
-        <v>333</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2693,22 +2517,14 @@
         <v>333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>333</v>
-      </c>
-      <c r="K60" t="n">
-        <v>333</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2736,22 +2552,14 @@
         <v>333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>333</v>
-      </c>
-      <c r="K61" t="n">
-        <v>333</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2779,22 +2587,14 @@
         <v>333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>333</v>
-      </c>
-      <c r="K62" t="n">
-        <v>333</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2822,22 +2622,14 @@
         <v>333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>333</v>
-      </c>
-      <c r="K63" t="n">
-        <v>333</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2865,22 +2657,14 @@
         <v>333</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>333</v>
-      </c>
-      <c r="K64" t="n">
-        <v>333</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2908,22 +2692,14 @@
         <v>333</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>333</v>
-      </c>
-      <c r="K65" t="n">
-        <v>333</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2951,22 +2727,14 @@
         <v>333.6666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>335</v>
-      </c>
-      <c r="K66" t="n">
-        <v>333</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +2762,14 @@
         <v>335</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>335</v>
-      </c>
-      <c r="K67" t="n">
-        <v>333</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3037,22 +2797,14 @@
         <v>337.6666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>339</v>
-      </c>
-      <c r="K68" t="n">
-        <v>333</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3086,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>333</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3127,14 +2873,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>333</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3168,14 +2908,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>333</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3209,14 +2943,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>333</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3250,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>333</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3291,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>333</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3332,14 +3048,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>333</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +3083,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>333</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3414,14 +3118,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>333</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3455,14 +3153,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>333</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3496,14 +3188,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>333</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3223,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>333</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3578,14 +3258,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>333</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3619,14 +3293,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>333</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3660,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>333</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3701,14 +3363,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>333</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3742,14 +3398,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>333</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3780,17 +3430,11 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>333</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3824,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>333</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3865,14 +3503,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>333</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3906,14 +3538,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>333</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3947,14 +3573,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>333</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3608,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>333</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4026,19 +3640,13 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>333</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>1.016021021021021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4067,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4102,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -5922,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5957,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-27 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-74409.58805923755</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-75196.04325923754</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-75036.71582560922</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-65844.85962560923</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-72457.62962560923</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-72898.96042560923</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-75199.13272560923</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-73654.61822560923</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-73799.38472560923</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-71837.68702560922</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-76216.58042560922</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-85122.47692560923</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-82703.12912560922</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-84216.79872560922</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-89678.38592560921</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-89678.38592560921</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-89678.38592560921</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-89646.38592560921</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-91746.38592560921</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-91746.38592560921</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-89631.35552560921</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-99061.35552560921</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-111188.8985256092</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-111188.8985256092</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-131490.3707256092</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-131490.3707256092</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2926,17 +2926,11 @@
         <v>-150538.9206256092</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2965,17 +2959,11 @@
         <v>-150538.9206256092</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3004,17 +2992,11 @@
         <v>-150537.9206256092</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3043,17 +3025,11 @@
         <v>-150537.9206256092</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3082,17 +3058,11 @@
         <v>-150537.9206256092</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3121,17 +3091,11 @@
         <v>-148047.8813256092</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3160,17 +3124,11 @@
         <v>-147582.8813256092</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3240,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3277,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3425,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3499,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3573,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3610,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3647,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3684,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3717,16 +3619,14 @@
         <v>-160945.7682256092</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -4379,17 +4279,11 @@
         <v>-159266.2181976813</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4422,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4459,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4492,17 +4378,11 @@
         <v>-159266.2181976813</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4531,17 +4411,11 @@
         <v>-159266.2181976813</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4570,17 +4444,11 @@
         <v>-159266.2181976813</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4609,17 +4477,11 @@
         <v>-159266.2181976813</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4648,17 +4510,11 @@
         <v>-157662.2855976813</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4687,17 +4543,11 @@
         <v>-155871.7257976813</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4874,15 +4708,11 @@
         <v>-149105.0686976813</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4911,15 +4741,11 @@
         <v>-149352.5550976813</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4989,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5318,16 +5104,14 @@
         <v>-131189.5051976813</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5353,7 +5137,7 @@
         <v>-131189.5051976813</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5386,7 +5170,7 @@
         <v>-131189.5051976813</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5419,7 +5203,7 @@
         <v>-131189.5051976813</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5452,7 +5236,7 @@
         <v>-131188.5051976813</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5485,7 +5269,7 @@
         <v>-132455.8454976813</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5584,7 +5368,7 @@
         <v>-137307.7026976813</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5617,7 +5401,7 @@
         <v>-137676.1580976813</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5650,7 +5434,7 @@
         <v>-137676.1580976813</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5683,7 +5467,7 @@
         <v>-137676.1580976813</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5716,7 +5500,7 @@
         <v>-137834.0897976813</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5749,7 +5533,7 @@
         <v>-133163.0334976813</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5782,7 +5566,7 @@
         <v>-133163.0334976813</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5815,7 +5599,7 @@
         <v>-133169.2614976813</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5848,7 +5632,7 @@
         <v>-133169.2614976813</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5881,7 +5665,7 @@
         <v>-133146.2614976813</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5914,7 +5698,7 @@
         <v>-134092.5004976813</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5947,7 +5731,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5980,7 +5764,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6013,7 +5797,7 @@
         <v>-129739.8848976813</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6046,7 +5830,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6079,7 +5863,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6112,7 +5896,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6145,7 +5929,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6178,7 +5962,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6211,7 +5995,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6244,7 +6028,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6277,7 +6061,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6310,7 +6094,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6343,7 +6127,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6409,7 +6193,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6442,7 +6226,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6541,7 +6325,7 @@
         <v>-524839.2926976813</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -11623,10 +11407,14 @@
         <v>-556009.6297927664</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>337</v>
+      </c>
+      <c r="J334" t="n">
+        <v>337</v>
+      </c>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
@@ -11656,11 +11444,19 @@
         <v>-554578.9824927665</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>337</v>
+      </c>
+      <c r="J335" t="n">
+        <v>337</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11689,11 +11485,19 @@
         <v>-558227.5189927665</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>338</v>
+      </c>
+      <c r="J336" t="n">
+        <v>337</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11722,11 +11526,19 @@
         <v>-558227.5189927665</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>337</v>
+      </c>
+      <c r="J337" t="n">
+        <v>337</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11755,11 +11567,19 @@
         <v>-556961.3251927665</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>337</v>
+      </c>
+      <c r="J338" t="n">
+        <v>337</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11791,8 +11611,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>337</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11824,8 +11650,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>337</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11857,8 +11689,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>337</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11890,8 +11728,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>337</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11923,8 +11767,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>337</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11956,8 +11806,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>337</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11989,8 +11845,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>337</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12022,8 +11884,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>337</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12055,8 +11923,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>337</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12088,8 +11962,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>337</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12121,8 +12001,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>337</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12154,8 +12040,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>337</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12187,8 +12079,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>337</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12220,8 +12118,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>337</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12253,8 +12157,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>337</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12286,8 +12196,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>337</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12319,8 +12235,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>337</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12352,8 +12274,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>337</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12385,8 +12313,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>337</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12418,8 +12352,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>337</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12451,8 +12391,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>337</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12484,8 +12430,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>337</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12517,8 +12469,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>337</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12550,8 +12508,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>337</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12583,8 +12547,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>337</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12616,8 +12586,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>337</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12649,8 +12625,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>337</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12682,8 +12664,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>337</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12715,8 +12703,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>337</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12748,8 +12742,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>337</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12781,8 +12781,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>337</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12814,8 +12820,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>337</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +12859,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>337</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12877,15 +12895,17 @@
         <v>-593662.5453927664</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>335</v>
-      </c>
-      <c r="K372" t="inlineStr"/>
+        <v>337</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12914,17 +12934,17 @@
         <v>-593793.4588927664</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>336</v>
       </c>
       <c r="J373" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -12955,17 +12975,17 @@
         <v>-586225.6311927664</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>335</v>
       </c>
       <c r="J374" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L374" t="n">
@@ -12996,13 +13016,13 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>337</v>
       </c>
       <c r="J375" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13037,13 +13057,13 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>335</v>
       </c>
       <c r="J376" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13078,13 +13098,13 @@
         <v>-586221.6756927663</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>335</v>
       </c>
       <c r="J377" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13119,11 +13139,13 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>336</v>
+      </c>
       <c r="J378" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13158,11 +13180,13 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>337</v>
+      </c>
       <c r="J379" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13197,13 +13221,11 @@
         <v>-582925.7309927663</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13242,7 +13264,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13281,7 +13303,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13320,7 +13342,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13359,7 +13381,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13398,7 +13420,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13437,7 +13459,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13476,7 +13498,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13515,7 +13537,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13554,7 +13576,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13589,19 +13611,19 @@
         <v>-557677.9561097375</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L390" t="n">
-        <v>1.006940298507463</v>
+        <v>1</v>
       </c>
       <c r="M390" t="inlineStr"/>
     </row>
@@ -13631,8 +13653,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>337</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13664,8 +13692,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>337</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13697,8 +13731,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>337</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13730,8 +13770,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>337</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +13809,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>337</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13796,8 +13848,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>337</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13826,11 +13884,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>337</v>
+      </c>
+      <c r="J397" t="n">
+        <v>337</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +13925,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>337</v>
+      </c>
+      <c r="J398" t="n">
+        <v>337</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13892,11 +13966,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>337</v>
+      </c>
+      <c r="J399" t="n">
+        <v>337</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13925,11 +14007,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>337</v>
+      </c>
+      <c r="J400" t="n">
+        <v>337</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +14048,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>337</v>
+      </c>
+      <c r="J401" t="n">
+        <v>337</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +14089,19 @@
         <v>-560895.7385097375</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>337</v>
+      </c>
+      <c r="J402" t="n">
+        <v>337</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14024,11 +14130,19 @@
         <v>-560887.6619097375</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>336</v>
+      </c>
+      <c r="J403" t="n">
+        <v>337</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14060,8 +14174,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>337</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14090,11 +14210,19 @@
         <v>-563520.2127097375</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>337</v>
+      </c>
+      <c r="J405" t="n">
+        <v>337</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14123,15 +14251,19 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>336</v>
       </c>
       <c r="J406" t="n">
-        <v>336</v>
-      </c>
-      <c r="K406" t="inlineStr"/>
+        <v>337</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14160,17 +14292,17 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>339</v>
       </c>
       <c r="J407" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
@@ -14201,15 +14333,17 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>339</v>
+      </c>
       <c r="J408" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L408" t="n">
@@ -14240,11 +14374,19 @@
         <v>-558642.8205097375</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>339</v>
+      </c>
+      <c r="J409" t="n">
+        <v>337</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14276,8 +14418,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>337</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14309,8 +14457,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>337</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14342,8 +14496,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>337</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14375,8 +14535,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>337</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14408,8 +14574,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>337</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14441,8 +14613,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>337</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14474,8 +14652,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>337</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14507,8 +14691,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>337</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14540,8 +14730,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>337</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14570,11 +14766,19 @@
         <v>-582613.2514097375</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>335</v>
+      </c>
+      <c r="J419" t="n">
+        <v>337</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14603,11 +14807,19 @@
         <v>-580364.0159097376</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>336</v>
+      </c>
+      <c r="J420" t="n">
+        <v>337</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14636,11 +14848,19 @@
         <v>-580364.0159097376</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>337</v>
+      </c>
+      <c r="J421" t="n">
+        <v>337</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14669,11 +14889,19 @@
         <v>-580359.9669097376</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>337</v>
+      </c>
+      <c r="J422" t="n">
+        <v>337</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14702,11 +14930,19 @@
         <v>-580359.9669097376</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>338</v>
+      </c>
+      <c r="J423" t="n">
+        <v>337</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14735,11 +14971,19 @@
         <v>-569676.2860397375</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>338</v>
+      </c>
+      <c r="J424" t="n">
+        <v>337</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +15012,19 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>340</v>
+      </c>
+      <c r="J425" t="n">
+        <v>337</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14801,11 +15053,19 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>338</v>
+      </c>
+      <c r="J426" t="n">
+        <v>337</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14834,11 +15094,19 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>338</v>
+      </c>
+      <c r="J427" t="n">
+        <v>337</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14867,11 +15135,19 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>338</v>
+      </c>
+      <c r="J428" t="n">
+        <v>337</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14900,11 +15176,19 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>338</v>
+      </c>
+      <c r="J429" t="n">
+        <v>337</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14933,11 +15217,19 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>338</v>
+      </c>
+      <c r="J430" t="n">
+        <v>337</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14966,11 +15258,19 @@
         <v>-570187.1878397375</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>338</v>
+      </c>
+      <c r="J431" t="n">
+        <v>337</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14999,11 +15299,19 @@
         <v>-568746.0113691493</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>337</v>
+      </c>
+      <c r="J432" t="n">
+        <v>337</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15035,8 +15343,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>337</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15068,8 +15382,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>337</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15101,8 +15421,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>337</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15134,8 +15460,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>337</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15167,8 +15499,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>337</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15200,8 +15538,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>337</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15233,8 +15577,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>337</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15266,8 +15616,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>337</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15299,8 +15655,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>337</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15332,8 +15694,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>337</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15362,11 +15730,19 @@
         <v>-590962.8375691493</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>335</v>
+      </c>
+      <c r="J443" t="n">
+        <v>337</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15395,11 +15771,19 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>335</v>
+      </c>
+      <c r="J444" t="n">
+        <v>337</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15428,11 +15812,19 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>334</v>
+      </c>
+      <c r="J445" t="n">
+        <v>337</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +15853,19 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>334</v>
+      </c>
+      <c r="J446" t="n">
+        <v>337</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15494,15 +15894,19 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>335</v>
       </c>
       <c r="J447" t="n">
-        <v>335</v>
-      </c>
-      <c r="K447" t="inlineStr"/>
+        <v>337</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15531,15 +15935,17 @@
         <v>-606796.1579691493</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>335</v>
+      </c>
       <c r="J448" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -15570,13 +15976,13 @@
         <v>-593392.9062691493</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>334</v>
       </c>
       <c r="J449" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15611,11 +16017,13 @@
         <v>-542259.0169691492</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>335</v>
+      </c>
       <c r="J450" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15650,11 +16058,13 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>336</v>
+      </c>
       <c r="J451" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15689,11 +16099,13 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>334</v>
+      </c>
       <c r="J452" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15728,11 +16140,13 @@
         <v>-541185.8668691493</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>334</v>
+      </c>
       <c r="J453" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15767,11 +16181,13 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>336</v>
+      </c>
       <c r="J454" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15806,11 +16222,13 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>335</v>
+      </c>
       <c r="J455" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15845,11 +16263,13 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>335</v>
+      </c>
       <c r="J456" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15884,11 +16304,13 @@
         <v>-544379.0987691493</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>335</v>
+      </c>
       <c r="J457" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15923,11 +16345,13 @@
         <v>-538895.6437691493</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>334</v>
+      </c>
       <c r="J458" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15940,6 +16364,6 @@
       <c r="M458" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-27 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-74409.58805923755</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-75196.04325923754</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-75036.71582560922</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-65844.85962560923</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-72457.62962560923</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-72898.96042560923</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-75199.13272560923</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-73654.61822560923</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-73799.38472560923</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-71837.68702560922</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-76216.58042560922</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-85122.47692560923</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-82703.12912560922</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-84216.79872560922</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-89362.75982560922</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-89678.38592560921</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-89678.38592560921</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-89678.38592560921</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-89646.38592560921</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-91746.38592560921</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-91746.38592560921</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-89631.35552560921</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-90211.35552560921</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-99061.35552560921</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-111188.8985256092</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-111188.8985256092</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-131490.3707256092</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-131490.3707256092</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-137676.1580976813</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-137676.1580976813</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-137676.1580976813</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-137834.0897976813</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-133163.0334976813</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-133163.0334976813</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-133169.2614976813</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-133146.2614976813</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-134092.5004976813</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-129739.8848976813</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-524839.2926976813</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -10219,10 +10219,14 @@
         <v>-540983.9839927664</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>341</v>
+      </c>
+      <c r="J298" t="n">
+        <v>341</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
@@ -10255,8 +10259,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>341</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>341</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11407,14 +11423,10 @@
         <v>-556009.6297927664</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>337</v>
-      </c>
-      <c r="J334" t="n">
-        <v>337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
@@ -11444,19 +11456,11 @@
         <v>-554578.9824927665</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>337</v>
-      </c>
-      <c r="J335" t="n">
-        <v>337</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11485,19 +11489,11 @@
         <v>-558227.5189927665</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>338</v>
-      </c>
-      <c r="J336" t="n">
-        <v>337</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11526,19 +11522,11 @@
         <v>-558227.5189927665</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>337</v>
-      </c>
-      <c r="J337" t="n">
-        <v>337</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11567,19 +11555,11 @@
         <v>-556961.3251927665</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>337</v>
-      </c>
-      <c r="J338" t="n">
-        <v>337</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11611,14 +11591,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>337</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11650,14 +11624,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>337</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11689,14 +11657,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>337</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11728,14 +11690,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>337</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11767,14 +11723,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>337</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11806,14 +11756,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>337</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11845,14 +11789,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>337</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11884,14 +11822,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>337</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11923,14 +11855,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>337</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11962,14 +11888,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>337</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12001,14 +11921,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>337</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12040,14 +11954,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>337</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12079,14 +11987,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>337</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12118,14 +12020,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>337</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12157,14 +12053,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>337</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12196,14 +12086,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>337</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12235,14 +12119,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>337</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12274,14 +12152,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>337</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12313,14 +12185,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>337</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12352,14 +12218,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>337</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12391,14 +12251,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>337</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12430,14 +12284,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>337</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12469,14 +12317,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>337</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12508,14 +12350,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>337</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12547,14 +12383,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>337</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12586,14 +12416,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>337</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12625,14 +12449,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>337</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12664,14 +12482,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>337</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12703,14 +12515,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>337</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12742,14 +12548,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>337</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12781,14 +12581,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>337</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12820,14 +12614,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>337</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12859,14 +12647,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>337</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12898,14 +12680,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>337</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12934,19 +12710,11 @@
         <v>-593793.4588927664</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>336</v>
-      </c>
-      <c r="J373" t="n">
-        <v>337</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12975,19 +12743,11 @@
         <v>-586225.6311927664</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>335</v>
-      </c>
-      <c r="J374" t="n">
-        <v>337</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13016,19 +12776,11 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>337</v>
-      </c>
-      <c r="J375" t="n">
-        <v>337</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13057,19 +12809,11 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>335</v>
-      </c>
-      <c r="J376" t="n">
-        <v>337</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13098,19 +12842,11 @@
         <v>-586221.6756927663</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>335</v>
-      </c>
-      <c r="J377" t="n">
-        <v>337</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13139,19 +12875,11 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>336</v>
-      </c>
-      <c r="J378" t="n">
-        <v>337</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13180,19 +12908,11 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>337</v>
-      </c>
-      <c r="J379" t="n">
-        <v>337</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13224,14 +12944,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>337</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13263,14 +12977,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>337</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13302,14 +13010,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>337</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13341,14 +13043,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>337</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13380,14 +13076,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>337</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13419,14 +13109,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>337</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13458,14 +13142,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>337</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13497,14 +13175,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>337</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13536,14 +13208,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>337</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13575,14 +13241,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>337</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13614,14 +13274,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>337</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13653,14 +13307,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>337</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13692,14 +13340,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>337</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13731,14 +13373,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>337</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13770,14 +13406,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>337</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13809,14 +13439,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>337</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13848,14 +13472,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>337</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13884,19 +13502,11 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>337</v>
-      </c>
-      <c r="J397" t="n">
-        <v>337</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13925,19 +13535,11 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>337</v>
-      </c>
-      <c r="J398" t="n">
-        <v>337</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13966,19 +13568,11 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>337</v>
-      </c>
-      <c r="J399" t="n">
-        <v>337</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14007,19 +13601,11 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>337</v>
-      </c>
-      <c r="J400" t="n">
-        <v>337</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14048,19 +13634,11 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>337</v>
-      </c>
-      <c r="J401" t="n">
-        <v>337</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14089,19 +13667,11 @@
         <v>-560895.7385097375</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>337</v>
-      </c>
-      <c r="J402" t="n">
-        <v>337</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14130,19 +13700,11 @@
         <v>-560887.6619097375</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>336</v>
-      </c>
-      <c r="J403" t="n">
-        <v>337</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14174,14 +13736,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>337</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14210,19 +13766,11 @@
         <v>-563520.2127097375</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>337</v>
-      </c>
-      <c r="J405" t="n">
-        <v>337</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14251,19 +13799,11 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>336</v>
-      </c>
-      <c r="J406" t="n">
-        <v>337</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14292,19 +13832,11 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>339</v>
-      </c>
-      <c r="J407" t="n">
-        <v>337</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14333,19 +13865,11 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>339</v>
-      </c>
-      <c r="J408" t="n">
-        <v>337</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14374,19 +13898,11 @@
         <v>-558642.8205097375</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>339</v>
-      </c>
-      <c r="J409" t="n">
-        <v>337</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14418,14 +13934,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>337</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14457,14 +13967,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>337</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14496,14 +14000,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>337</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14535,14 +14033,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>337</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14574,14 +14066,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>337</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14613,14 +14099,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>337</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14652,14 +14132,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>337</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14691,14 +14165,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>337</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14730,14 +14198,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>337</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14766,19 +14228,11 @@
         <v>-582613.2514097375</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>335</v>
-      </c>
-      <c r="J419" t="n">
-        <v>337</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14807,19 +14261,11 @@
         <v>-580364.0159097376</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>336</v>
-      </c>
-      <c r="J420" t="n">
-        <v>337</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14848,19 +14294,11 @@
         <v>-580364.0159097376</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>337</v>
-      </c>
-      <c r="J421" t="n">
-        <v>337</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14889,19 +14327,11 @@
         <v>-580359.9669097376</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>337</v>
-      </c>
-      <c r="J422" t="n">
-        <v>337</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14930,19 +14360,11 @@
         <v>-580359.9669097376</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>338</v>
-      </c>
-      <c r="J423" t="n">
-        <v>337</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14971,19 +14393,11 @@
         <v>-569676.2860397375</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>338</v>
-      </c>
-      <c r="J424" t="n">
-        <v>337</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15012,19 +14426,11 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>340</v>
-      </c>
-      <c r="J425" t="n">
-        <v>337</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15053,19 +14459,11 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>338</v>
-      </c>
-      <c r="J426" t="n">
-        <v>337</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15094,19 +14492,11 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>338</v>
-      </c>
-      <c r="J427" t="n">
-        <v>337</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15135,19 +14525,11 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>338</v>
-      </c>
-      <c r="J428" t="n">
-        <v>337</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15176,19 +14558,11 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>338</v>
-      </c>
-      <c r="J429" t="n">
-        <v>337</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15217,19 +14591,11 @@
         <v>-570175.1878397375</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>338</v>
-      </c>
-      <c r="J430" t="n">
-        <v>337</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15258,19 +14624,11 @@
         <v>-570187.1878397375</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>338</v>
-      </c>
-      <c r="J431" t="n">
-        <v>337</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15299,19 +14657,11 @@
         <v>-568746.0113691493</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>337</v>
-      </c>
-      <c r="J432" t="n">
-        <v>337</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15343,14 +14693,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>337</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15382,14 +14726,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>337</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15421,14 +14759,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>337</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15460,14 +14792,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>337</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15499,14 +14825,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>337</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15538,14 +14858,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>337</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15577,14 +14891,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>337</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15616,14 +14924,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>337</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15655,14 +14957,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>337</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15694,14 +14990,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>337</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15730,19 +15020,11 @@
         <v>-590962.8375691493</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>335</v>
-      </c>
-      <c r="J443" t="n">
-        <v>337</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15771,19 +15053,11 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>335</v>
-      </c>
-      <c r="J444" t="n">
-        <v>337</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15812,19 +15086,11 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>334</v>
-      </c>
-      <c r="J445" t="n">
-        <v>337</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15853,19 +15119,11 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>334</v>
-      </c>
-      <c r="J446" t="n">
-        <v>337</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15894,19 +15152,11 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>335</v>
-      </c>
-      <c r="J447" t="n">
-        <v>337</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15935,19 +15185,11 @@
         <v>-606796.1579691493</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>335</v>
-      </c>
-      <c r="J448" t="n">
-        <v>337</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15976,19 +15218,11 @@
         <v>-593392.9062691493</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>334</v>
-      </c>
-      <c r="J449" t="n">
-        <v>337</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16017,19 +15251,11 @@
         <v>-542259.0169691492</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>335</v>
-      </c>
-      <c r="J450" t="n">
-        <v>337</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16058,19 +15284,11 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>336</v>
-      </c>
-      <c r="J451" t="n">
-        <v>337</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16099,19 +15317,11 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>334</v>
-      </c>
-      <c r="J452" t="n">
-        <v>337</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16140,19 +15350,11 @@
         <v>-541185.8668691493</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>334</v>
-      </c>
-      <c r="J453" t="n">
-        <v>337</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16181,19 +15383,11 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>336</v>
-      </c>
-      <c r="J454" t="n">
-        <v>337</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16222,19 +15416,11 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>335</v>
-      </c>
-      <c r="J455" t="n">
-        <v>337</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16263,19 +15449,11 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>335</v>
-      </c>
-      <c r="J456" t="n">
-        <v>337</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16304,19 +15482,11 @@
         <v>-544379.0987691493</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>335</v>
-      </c>
-      <c r="J457" t="n">
-        <v>337</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16345,25 +15515,17 @@
         <v>-538895.6437691493</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>334</v>
-      </c>
-      <c r="J458" t="n">
-        <v>337</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
       <c r="M458" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-27 BackTest ZRX.xlsx
@@ -451,7 +451,7 @@
         <v>-67092.86255923755</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-74409.58805923755</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-75196.04325923754</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-72457.62962560923</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-72898.96042560923</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-75199.13272560923</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-73654.61822560923</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-73799.38472560923</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-71641.68702560922</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-71837.68702560922</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-76216.58042560922</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-85122.47692560923</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-82703.12912560922</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-131188.5051976813</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-132455.8454976813</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-132439.5203976813</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-132449.1239976813</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-137307.7026976813</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-133169.2614976813</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-134092.5004976813</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-129739.8848976813</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-508812.6340976814</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-508812.6340976814</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-509719.5502927664</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-511970.6582927664</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-511970.6582927664</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-511970.6582927664</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-510375.6921927664</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-511528.8324927664</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-510212.2326927664</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-511675.9380927664</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-519022.2239927664</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-518990.2239927664</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-519813.8652927664</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-519813.8652927664</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-519803.7542927664</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-519803.7542927664</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-540060.6475927664</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-529786.7496927665</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-529786.7496927665</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-532440.5659927664</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-531511.9957927663</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-531511.9957927663</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-542908.3060927663</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-542908.3060927663</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-542908.3060927663</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-542592.6760927663</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-542592.6760927663</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-540254.6618927662</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-540693.4488927663</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10219,14 +10219,10 @@
         <v>-540983.9839927664</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>341</v>
-      </c>
-      <c r="J298" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
@@ -10259,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>341</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10298,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>341</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12710,10 +12694,14 @@
         <v>-593793.4588927664</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>336</v>
+      </c>
+      <c r="J373" t="n">
+        <v>336</v>
+      </c>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
@@ -12743,11 +12731,19 @@
         <v>-586225.6311927664</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>335</v>
+      </c>
+      <c r="J374" t="n">
+        <v>336</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12776,11 +12772,19 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>337</v>
+      </c>
+      <c r="J375" t="n">
+        <v>336</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12809,11 +12813,19 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>335</v>
+      </c>
+      <c r="J376" t="n">
+        <v>336</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12842,11 +12854,19 @@
         <v>-586221.6756927663</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>335</v>
+      </c>
+      <c r="J377" t="n">
+        <v>336</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12875,11 +12895,19 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>336</v>
+      </c>
+      <c r="J378" t="n">
+        <v>336</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12908,11 +12936,19 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>337</v>
+      </c>
+      <c r="J379" t="n">
+        <v>336</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12941,11 +12977,19 @@
         <v>-582925.7309927663</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>337</v>
+      </c>
+      <c r="J380" t="n">
+        <v>336</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12977,8 +13021,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>336</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13010,8 +13060,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>336</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13043,8 +13099,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>336</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13076,8 +13138,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>336</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13109,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>336</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13142,8 +13216,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>336</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13175,8 +13255,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>336</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13208,8 +13294,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>336</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13241,8 +13333,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>336</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13274,8 +13372,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>336</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13307,8 +13411,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>336</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13340,8 +13450,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>336</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13373,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>336</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13406,8 +13528,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>336</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13439,8 +13567,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>336</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13469,11 +13603,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>337</v>
+      </c>
+      <c r="J396" t="n">
+        <v>336</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13502,11 +13644,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>337</v>
+      </c>
+      <c r="J397" t="n">
+        <v>336</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13535,11 +13685,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>337</v>
+      </c>
+      <c r="J398" t="n">
+        <v>336</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13568,11 +13726,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>337</v>
+      </c>
+      <c r="J399" t="n">
+        <v>336</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13601,11 +13767,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>337</v>
+      </c>
+      <c r="J400" t="n">
+        <v>336</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13634,11 +13808,19 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>337</v>
+      </c>
+      <c r="J401" t="n">
+        <v>336</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13667,11 +13849,19 @@
         <v>-560895.7385097375</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>337</v>
+      </c>
+      <c r="J402" t="n">
+        <v>336</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13700,11 +13890,19 @@
         <v>-560887.6619097375</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>336</v>
+      </c>
+      <c r="J403" t="n">
+        <v>336</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13736,8 +13934,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>336</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13766,11 +13970,19 @@
         <v>-563520.2127097375</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>337</v>
+      </c>
+      <c r="J405" t="n">
+        <v>336</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13799,11 +14011,19 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>336</v>
+      </c>
+      <c r="J406" t="n">
+        <v>336</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13835,8 +14055,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>336</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13868,8 +14094,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>336</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13901,8 +14133,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>336</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13934,8 +14172,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>336</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13967,8 +14211,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>336</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14000,8 +14250,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>336</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14033,8 +14289,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>336</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14066,8 +14328,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>336</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14099,8 +14367,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>336</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14132,8 +14406,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>336</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14165,8 +14445,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>336</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14198,8 +14484,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>336</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14231,8 +14523,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>336</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14264,8 +14562,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>336</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14297,8 +14601,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>336</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14327,11 +14637,19 @@
         <v>-580359.9669097376</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>337</v>
+      </c>
+      <c r="J422" t="n">
+        <v>336</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14363,8 +14681,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>336</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14396,8 +14720,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>336</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14429,8 +14759,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>336</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14462,8 +14798,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>336</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14495,8 +14837,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>336</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14528,8 +14876,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>336</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14561,8 +14915,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>336</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14594,8 +14954,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>336</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14627,8 +14993,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>336</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14660,8 +15032,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>336</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14693,8 +15071,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>336</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14726,8 +15110,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>336</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14759,8 +15149,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>336</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14792,8 +15188,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>336</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14825,8 +15227,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>336</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14858,8 +15266,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>336</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14891,8 +15305,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>336</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14924,8 +15344,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>336</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14957,8 +15383,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>336</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14990,8 +15422,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>336</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15023,8 +15461,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>336</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15056,8 +15500,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>336</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15086,11 +15536,19 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>334</v>
+      </c>
+      <c r="J445" t="n">
+        <v>336</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15119,11 +15577,19 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>334</v>
+      </c>
+      <c r="J446" t="n">
+        <v>336</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15152,11 +15618,19 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>335</v>
+      </c>
+      <c r="J447" t="n">
+        <v>336</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15185,11 +15659,19 @@
         <v>-606796.1579691493</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>335</v>
+      </c>
+      <c r="J448" t="n">
+        <v>336</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15218,11 +15700,19 @@
         <v>-593392.9062691493</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>334</v>
+      </c>
+      <c r="J449" t="n">
+        <v>336</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15251,11 +15741,19 @@
         <v>-542259.0169691492</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>335</v>
+      </c>
+      <c r="J450" t="n">
+        <v>336</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15284,11 +15782,19 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>336</v>
+      </c>
+      <c r="J451" t="n">
+        <v>336</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15317,11 +15823,19 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>334</v>
+      </c>
+      <c r="J452" t="n">
+        <v>336</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15350,11 +15864,19 @@
         <v>-541185.8668691493</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>334</v>
+      </c>
+      <c r="J453" t="n">
+        <v>336</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15383,11 +15905,19 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>336</v>
+      </c>
+      <c r="J454" t="n">
+        <v>336</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15419,8 +15949,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>336</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15449,11 +15985,19 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>335</v>
+      </c>
+      <c r="J456" t="n">
+        <v>336</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15485,8 +16029,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>336</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15515,11 +16065,19 @@
         <v>-538895.6437691493</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>334</v>
+      </c>
+      <c r="J458" t="n">
+        <v>336</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
